--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mdk-Alk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mdk-Alk.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H2">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I2">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J2">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,22 +561,22 @@
         <v>0.150917</v>
       </c>
       <c r="O2">
-        <v>0.5529898025363581</v>
+        <v>0.3717075934090293</v>
       </c>
       <c r="P2">
-        <v>0.5529898025363581</v>
+        <v>0.3717075934090293</v>
       </c>
       <c r="Q2">
-        <v>0.1264045074976667</v>
+        <v>0.1000114047212222</v>
       </c>
       <c r="R2">
-        <v>1.137640567479</v>
+        <v>0.9001026424909999</v>
       </c>
       <c r="S2">
-        <v>0.01211449317983376</v>
+        <v>0.006162055889245681</v>
       </c>
       <c r="T2">
-        <v>0.01211449317983376</v>
+        <v>0.00616205588924568</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H3">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I3">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J3">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.04066466666666666</v>
+        <v>0.08503100000000001</v>
       </c>
       <c r="N3">
-        <v>0.121994</v>
+        <v>0.255093</v>
       </c>
       <c r="O3">
-        <v>0.447010197463642</v>
+        <v>0.6282924065909707</v>
       </c>
       <c r="P3">
-        <v>0.447010197463642</v>
+        <v>0.6282924065909707</v>
       </c>
       <c r="Q3">
-        <v>0.1021792872086666</v>
+        <v>0.1690479486376667</v>
       </c>
       <c r="R3">
-        <v>0.9196135848779998</v>
+        <v>1.521431537739</v>
       </c>
       <c r="S3">
-        <v>0.009792770072163108</v>
+        <v>0.01041564119983401</v>
       </c>
       <c r="T3">
-        <v>0.009792770072163108</v>
+        <v>0.01041564119983401</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>278.681984</v>
       </c>
       <c r="I4">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J4">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,10 +685,10 @@
         <v>0.150917</v>
       </c>
       <c r="O4">
-        <v>0.5529898025363581</v>
+        <v>0.3717075934090293</v>
       </c>
       <c r="P4">
-        <v>0.5529898025363581</v>
+        <v>0.3717075934090293</v>
       </c>
       <c r="Q4">
         <v>4.673094331036444</v>
@@ -697,10 +697,10 @@
         <v>42.057848979328</v>
       </c>
       <c r="S4">
-        <v>0.4478651159105687</v>
+        <v>0.2879258472954266</v>
       </c>
       <c r="T4">
-        <v>0.4478651159105688</v>
+        <v>0.2879258472954265</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>278.681984</v>
       </c>
       <c r="I5">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J5">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.04066466666666666</v>
+        <v>0.08503100000000001</v>
       </c>
       <c r="N5">
-        <v>0.121994</v>
+        <v>0.255093</v>
       </c>
       <c r="O5">
-        <v>0.447010197463642</v>
+        <v>0.6282924065909707</v>
       </c>
       <c r="P5">
-        <v>0.447010197463642</v>
+        <v>0.6282924065909707</v>
       </c>
       <c r="Q5">
-        <v>3.777503328455111</v>
+        <v>7.898869260501335</v>
       </c>
       <c r="R5">
-        <v>33.997529956096</v>
+        <v>71.089823344512</v>
       </c>
       <c r="S5">
-        <v>0.362032487727651</v>
+        <v>0.486677234268719</v>
       </c>
       <c r="T5">
-        <v>0.362032487727651</v>
+        <v>0.4866772342687189</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H6">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I6">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J6">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,22 +809,22 @@
         <v>0.150917</v>
       </c>
       <c r="O6">
-        <v>0.5529898025363581</v>
+        <v>0.3717075934090293</v>
       </c>
       <c r="P6">
-        <v>0.5529898025363581</v>
+        <v>0.3717075934090293</v>
       </c>
       <c r="Q6">
-        <v>0.889458550323778</v>
+        <v>1.194325193901667</v>
       </c>
       <c r="R6">
-        <v>8.005126952914001</v>
+        <v>10.748926745115</v>
       </c>
       <c r="S6">
-        <v>0.08524489952892811</v>
+        <v>0.07358659360170534</v>
       </c>
       <c r="T6">
-        <v>0.08524489952892811</v>
+        <v>0.07358659360170534</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H7">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I7">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J7">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.04066466666666666</v>
+        <v>0.08503100000000001</v>
       </c>
       <c r="N7">
-        <v>0.121994</v>
+        <v>0.255093</v>
       </c>
       <c r="O7">
-        <v>0.447010197463642</v>
+        <v>0.6282924065909707</v>
       </c>
       <c r="P7">
-        <v>0.447010197463642</v>
+        <v>0.6282924065909707</v>
       </c>
       <c r="Q7">
-        <v>0.7189952516164445</v>
+        <v>2.018752007315</v>
       </c>
       <c r="R7">
-        <v>6.470957264548</v>
+        <v>18.168768065835</v>
       </c>
       <c r="S7">
-        <v>0.06890785182008689</v>
+        <v>0.1243824414853186</v>
       </c>
       <c r="T7">
-        <v>0.06890785182008689</v>
+        <v>0.1243824414853186</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H8">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I8">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J8">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,22 +933,22 @@
         <v>0.150917</v>
       </c>
       <c r="O8">
-        <v>0.5529898025363581</v>
+        <v>0.3717075934090293</v>
       </c>
       <c r="P8">
-        <v>0.5529898025363581</v>
+        <v>0.3717075934090293</v>
       </c>
       <c r="Q8">
-        <v>0.08102428542288888</v>
+        <v>0.06545796822644445</v>
       </c>
       <c r="R8">
-        <v>0.7292185688059999</v>
+        <v>0.589121714038</v>
       </c>
       <c r="S8">
-        <v>0.007765293917027527</v>
+        <v>0.00403309662265175</v>
       </c>
       <c r="T8">
-        <v>0.007765293917027528</v>
+        <v>0.00403309662265175</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H9">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I9">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J9">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04066466666666666</v>
+        <v>0.08503100000000001</v>
       </c>
       <c r="N9">
-        <v>0.121994</v>
+        <v>0.255093</v>
       </c>
       <c r="O9">
-        <v>0.447010197463642</v>
+        <v>0.6282924065909707</v>
       </c>
       <c r="P9">
-        <v>0.447010197463642</v>
+        <v>0.6282924065909707</v>
       </c>
       <c r="Q9">
-        <v>0.0654961116102222</v>
+        <v>0.1106427340113334</v>
       </c>
       <c r="R9">
-        <v>0.5894650044919998</v>
+        <v>0.995784606102</v>
       </c>
       <c r="S9">
-        <v>0.006277087843740971</v>
+        <v>0.006817089637099222</v>
       </c>
       <c r="T9">
-        <v>0.006277087843740971</v>
+        <v>0.006817089637099221</v>
       </c>
     </row>
   </sheetData>
